--- a/Game Principles/Asset Sheet/Asset Sheet.xlsx
+++ b/Game Principles/Asset Sheet/Asset Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Models</t>
   </si>
@@ -205,13 +205,31 @@
   </si>
   <si>
     <t>Platform Lights</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>No Action</t>
+  </si>
+  <si>
+    <t>White Boxed</t>
+  </si>
+  <si>
+    <t>UV Done</t>
+  </si>
+  <si>
+    <t>Done Through Texture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +267,29 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,14 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +376,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,6 +391,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FFD4ABDF"/>
       <color rgb="FFF9B9B9"/>
     </mruColors>
@@ -620,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,322 +682,352 @@
     <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Game Principles/Asset Sheet/Asset Sheet.xlsx
+++ b/Game Principles/Asset Sheet/Asset Sheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_17CAC2E5D1CCAE356C55A1FE62B3A5B4EA7A119D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AEB1EC08-A289-42FF-958F-60D9DC3C810C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +285,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="5"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Adobe Heiti Std R"/>
       <family val="2"/>
       <charset val="128"/>
@@ -357,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -376,13 +390,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,33 +686,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.1328125" style="1"/>
+    <col min="7" max="7" width="29.1328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -709,32 +726,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -747,283 +764,283 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>

--- a/Game Principles/Asset Sheet/Asset Sheet.xlsx
+++ b/Game Principles/Asset Sheet/Asset Sheet.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_17CAC2E5D1CCAE356C55A1FE62B3A5B4EA7A119D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AEB1EC08-A289-42FF-958F-60D9DC3C810C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Textures" sheetId="2" r:id="rId2"/>
+    <sheet name="Animations &amp; VFX" sheetId="3" r:id="rId3"/>
+    <sheet name="Lights" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Models</t>
   </si>
@@ -211,26 +213,41 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <t>No Action</t>
   </si>
   <si>
-    <t>White Boxed</t>
-  </si>
-  <si>
-    <t>UV Done</t>
-  </si>
-  <si>
-    <t>Done Through Texture</t>
+    <t>White Box</t>
+  </si>
+  <si>
+    <t>Main Model</t>
+  </si>
+  <si>
+    <t>UV MAP</t>
+  </si>
+  <si>
+    <t>Texture Applied</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Final Texture</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,13 +287,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Adobe Heiti Std R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Adobe Heiti Std R"/>
       <family val="2"/>
@@ -291,19 +301,72 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="5"/>
       <name val="Adobe Heiti Std R"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Adobe Heiti Std R"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +421,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF69292"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC792D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -367,47 +476,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC792D6"/>
+      <color rgb="FFF69292"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFD4ABDF"/>
       <color rgb="FFF9B9B9"/>
@@ -686,371 +837,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.1328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="1"/>
-    <col min="7" max="7" width="29.1328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="29.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B4" s="25"/>
+      <c r="G4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="F5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="31" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="31" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="17.7109375" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>